--- a/data/2023/ssg/7,51_DE-7.xlsx
+++ b/data/2023/ssg/7,51_DE-7.xlsx
@@ -259,6 +259,12 @@
     <t>1.1930 -</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
@@ -298,10 +304,7 @@
     <t>5.1935 - 35.1981; 37.1982 -</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>x</t>
+    <t>8</t>
   </si>
   <si>
     <t>761061-0</t>
@@ -757,10 +760,7 @@
     <t>1.1916 -</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>1a;9;12;24</t>
+    <t>1a;8;9;12;24</t>
   </si>
   <si>
     <t>429150-5</t>
@@ -1333,7 +1333,7 @@
     <t>1.1966 - 30.1993; damit Ersch. eingest.</t>
   </si>
   <si>
-    <t>37</t>
+    <t>56;37</t>
   </si>
   <si>
     <t>1208995-3</t>
@@ -4588,24 +4588,24 @@
         <v>32</v>
       </c>
       <c r="U8" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="V8" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="W8" t="s">
         <v>32</v>
       </c>
       <c r="X8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Y8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -4614,7 +4614,7 @@
         <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E9" t="s">
         <v>40</v>
@@ -4629,10 +4629,10 @@
         <v>32</v>
       </c>
       <c r="I9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K9" t="s">
         <v>44</v>
@@ -4656,7 +4656,7 @@
         <v>32</v>
       </c>
       <c r="R9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="S9" t="s">
         <v>32</v>
@@ -4677,12 +4677,12 @@
         <v>67</v>
       </c>
       <c r="Y9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -4691,7 +4691,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E10" t="s">
         <v>40</v>
@@ -4706,7 +4706,7 @@
         <v>32</v>
       </c>
       <c r="I10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J10" t="s">
         <v>74</v>
@@ -4730,10 +4730,10 @@
         <v>32</v>
       </c>
       <c r="Q10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="R10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="S10" t="s">
         <v>32</v>
@@ -4742,24 +4742,24 @@
         <v>32</v>
       </c>
       <c r="U10" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="V10" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="W10" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="X10" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="Y10" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -4768,13 +4768,13 @@
         <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G11" t="s">
         <v>32</v>
@@ -4783,10 +4783,10 @@
         <v>32</v>
       </c>
       <c r="I11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K11" t="s">
         <v>44</v>
@@ -4810,7 +4810,7 @@
         <v>32</v>
       </c>
       <c r="R11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="S11" t="s">
         <v>32</v>
@@ -4819,10 +4819,10 @@
         <v>32</v>
       </c>
       <c r="U11" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="V11" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="W11" t="s">
         <v>32</v>
@@ -4831,12 +4831,12 @@
         <v>67</v>
       </c>
       <c r="Y11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -4845,10 +4845,10 @@
         <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F12" t="s">
         <v>54</v>
@@ -4860,7 +4860,7 @@
         <v>32</v>
       </c>
       <c r="I12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J12" t="s">
         <v>50</v>
@@ -4887,7 +4887,7 @@
         <v>32</v>
       </c>
       <c r="R12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="S12" t="s">
         <v>32</v>
@@ -4913,7 +4913,7 @@
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -4922,13 +4922,13 @@
         <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E13" t="s">
         <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G13" t="s">
         <v>41</v>
@@ -4940,7 +4940,7 @@
         <v>32</v>
       </c>
       <c r="J13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K13" t="s">
         <v>44</v>
@@ -4964,7 +4964,7 @@
         <v>32</v>
       </c>
       <c r="R13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="S13" t="s">
         <v>32</v>
@@ -4973,13 +4973,13 @@
         <v>32</v>
       </c>
       <c r="U13" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="V13" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="W13" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="X13" t="s">
         <v>37</v>
@@ -4990,7 +4990,7 @@
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -4999,10 +4999,10 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F14" t="s">
         <v>54</v>
@@ -5041,7 +5041,7 @@
         <v>32</v>
       </c>
       <c r="R14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="S14" t="s">
         <v>32</v>
@@ -5067,7 +5067,7 @@
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -5076,13 +5076,13 @@
         <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E15" t="s">
         <v>40</v>
       </c>
       <c r="F15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G15" t="s">
         <v>32</v>
@@ -5094,7 +5094,7 @@
         <v>32</v>
       </c>
       <c r="J15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K15" t="s">
         <v>44</v>
@@ -5118,7 +5118,7 @@
         <v>32</v>
       </c>
       <c r="R15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="S15" t="s">
         <v>32</v>
@@ -5127,10 +5127,10 @@
         <v>32</v>
       </c>
       <c r="U15" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="V15" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="W15" t="s">
         <v>32</v>
@@ -5139,12 +5139,12 @@
         <v>67</v>
       </c>
       <c r="Y15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -5153,28 +5153,28 @@
         <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E16" t="s">
         <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H16" t="s">
         <v>32</v>
       </c>
       <c r="I16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J16" t="s">
         <v>43</v>
       </c>
       <c r="K16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L16" t="s">
         <v>32</v>
@@ -5195,7 +5195,7 @@
         <v>32</v>
       </c>
       <c r="R16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="S16" t="s">
         <v>32</v>
@@ -5216,12 +5216,12 @@
         <v>67</v>
       </c>
       <c r="Y16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -5230,22 +5230,22 @@
         <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E17" t="s">
         <v>40</v>
       </c>
       <c r="F17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H17" t="s">
         <v>32</v>
       </c>
       <c r="I17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J17" t="s">
         <v>43</v>
@@ -5272,7 +5272,7 @@
         <v>32</v>
       </c>
       <c r="R17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="S17" t="s">
         <v>32</v>
@@ -5281,24 +5281,24 @@
         <v>32</v>
       </c>
       <c r="U17" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="V17" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="W17" t="s">
         <v>32</v>
       </c>
       <c r="X17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Y17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -5307,13 +5307,13 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G18" t="s">
         <v>31</v>
@@ -5322,10 +5322,10 @@
         <v>32</v>
       </c>
       <c r="I18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K18" t="s">
         <v>44</v>
@@ -5343,13 +5343,13 @@
         <v>32</v>
       </c>
       <c r="P18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q18" t="s">
         <v>32</v>
       </c>
       <c r="R18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="S18" t="s">
         <v>32</v>
@@ -5375,7 +5375,7 @@
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -5384,13 +5384,13 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G19" t="s">
         <v>31</v>
@@ -5399,7 +5399,7 @@
         <v>32</v>
       </c>
       <c r="I19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J19" t="s">
         <v>43</v>
@@ -5426,7 +5426,7 @@
         <v>32</v>
       </c>
       <c r="R19" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="S19" t="s">
         <v>32</v>
@@ -5447,21 +5447,21 @@
         <v>67</v>
       </c>
       <c r="Y19" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D20" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E20" t="s">
         <v>40</v>
@@ -5476,7 +5476,7 @@
         <v>32</v>
       </c>
       <c r="I20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J20" t="s">
         <v>74</v>
@@ -5503,7 +5503,7 @@
         <v>32</v>
       </c>
       <c r="R20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="S20" t="s">
         <v>32</v>
@@ -5529,7 +5529,7 @@
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -5538,7 +5538,7 @@
         <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E21" t="s">
         <v>40</v>
@@ -5553,10 +5553,10 @@
         <v>32</v>
       </c>
       <c r="I21" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J21" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K21" t="s">
         <v>44</v>
@@ -5574,13 +5574,13 @@
         <v>32</v>
       </c>
       <c r="P21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q21" t="s">
         <v>32</v>
       </c>
       <c r="R21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="S21" t="s">
         <v>32</v>
@@ -5606,7 +5606,7 @@
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -5615,10 +5615,10 @@
         <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E22" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F22" t="s">
         <v>30</v>
@@ -5630,13 +5630,13 @@
         <v>32</v>
       </c>
       <c r="I22" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J22" t="s">
         <v>43</v>
       </c>
       <c r="K22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L22" t="s">
         <v>32</v>
@@ -5657,7 +5657,7 @@
         <v>32</v>
       </c>
       <c r="R22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="S22" t="s">
         <v>32</v>
@@ -5683,7 +5683,7 @@
     </row>
     <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -5692,10 +5692,10 @@
         <v>70</v>
       </c>
       <c r="D23" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E23" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F23" t="s">
         <v>72</v>
@@ -5707,10 +5707,10 @@
         <v>32</v>
       </c>
       <c r="I23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J23" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K23" t="s">
         <v>44</v>
@@ -5734,7 +5734,7 @@
         <v>32</v>
       </c>
       <c r="R23" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="S23" t="s">
         <v>32</v>
@@ -5760,7 +5760,7 @@
     </row>
     <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -5769,7 +5769,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E24" t="s">
         <v>40</v>
@@ -5784,7 +5784,7 @@
         <v>32</v>
       </c>
       <c r="I24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J24" t="s">
         <v>43</v>
@@ -5811,7 +5811,7 @@
         <v>32</v>
       </c>
       <c r="R24" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="S24" t="s">
         <v>32</v>
@@ -5837,7 +5837,7 @@
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -5846,25 +5846,25 @@
         <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E25" t="s">
         <v>40</v>
       </c>
       <c r="F25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G25" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H25" t="s">
         <v>32</v>
       </c>
       <c r="I25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J25" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K25" t="s">
         <v>44</v>
@@ -5882,13 +5882,13 @@
         <v>32</v>
       </c>
       <c r="P25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q25" t="s">
         <v>32</v>
       </c>
       <c r="R25" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="S25" t="s">
         <v>32</v>
@@ -5914,16 +5914,16 @@
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D26" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E26" t="s">
         <v>40</v>
@@ -5938,10 +5938,10 @@
         <v>32</v>
       </c>
       <c r="I26" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K26" t="s">
         <v>44</v>
@@ -5965,7 +5965,7 @@
         <v>32</v>
       </c>
       <c r="R26" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="S26" t="s">
         <v>32</v>
@@ -5991,22 +5991,22 @@
     </row>
     <row r="27" spans="1:25">
       <c r="A27" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D27" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E27" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F27" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G27" t="s">
         <v>41</v>
@@ -6018,7 +6018,7 @@
         <v>32</v>
       </c>
       <c r="J27" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K27" t="s">
         <v>44</v>
@@ -6042,7 +6042,7 @@
         <v>32</v>
       </c>
       <c r="R27" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="S27" t="s">
         <v>32</v>
@@ -6068,7 +6068,7 @@
     </row>
     <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -6077,13 +6077,13 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E28" t="s">
         <v>40</v>
       </c>
       <c r="F28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G28" t="s">
         <v>32</v>
@@ -6092,7 +6092,7 @@
         <v>32</v>
       </c>
       <c r="I28" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J28" t="s">
         <v>50</v>
@@ -6116,10 +6116,10 @@
         <v>32</v>
       </c>
       <c r="Q28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="R28" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="S28" t="s">
         <v>32</v>
@@ -6145,7 +6145,7 @@
     </row>
     <row r="29" spans="1:25">
       <c r="A29" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -6154,10 +6154,10 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F29" t="s">
         <v>54</v>
@@ -6169,7 +6169,7 @@
         <v>32</v>
       </c>
       <c r="I29" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J29" t="s">
         <v>50</v>
@@ -6196,7 +6196,7 @@
         <v>32</v>
       </c>
       <c r="R29" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="S29" t="s">
         <v>32</v>
@@ -6222,7 +6222,7 @@
     </row>
     <row r="30" spans="1:25">
       <c r="A30" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -6231,10 +6231,10 @@
         <v>60</v>
       </c>
       <c r="D30" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E30" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F30" t="s">
         <v>30</v>
@@ -6246,7 +6246,7 @@
         <v>32</v>
       </c>
       <c r="I30" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J30" t="s">
         <v>34</v>
@@ -6273,7 +6273,7 @@
         <v>32</v>
       </c>
       <c r="R30" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="S30" t="s">
         <v>32</v>
@@ -6282,24 +6282,24 @@
         <v>32</v>
       </c>
       <c r="U30" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="V30" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="W30" t="s">
         <v>32</v>
       </c>
       <c r="X30" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Y30" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -6308,13 +6308,13 @@
         <v>60</v>
       </c>
       <c r="D31" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E31" t="s">
         <v>40</v>
       </c>
       <c r="F31" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G31" t="s">
         <v>31</v>
@@ -6323,13 +6323,13 @@
         <v>32</v>
       </c>
       <c r="I31" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J31" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K31" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L31" t="s">
         <v>32</v>
@@ -6344,13 +6344,13 @@
         <v>32</v>
       </c>
       <c r="P31" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q31" t="s">
         <v>32</v>
       </c>
       <c r="R31" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="S31" t="s">
         <v>32</v>
@@ -6376,7 +6376,7 @@
     </row>
     <row r="32" spans="1:25">
       <c r="A32" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B32" t="s">
         <v>26</v>
@@ -6385,7 +6385,7 @@
         <v>27</v>
       </c>
       <c r="D32" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E32" t="s">
         <v>40</v>
@@ -6400,7 +6400,7 @@
         <v>32</v>
       </c>
       <c r="I32" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J32" t="s">
         <v>74</v>
@@ -6453,7 +6453,7 @@
     </row>
     <row r="33" spans="1:25">
       <c r="A33" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B33" t="s">
         <v>26</v>
@@ -6462,13 +6462,13 @@
         <v>60</v>
       </c>
       <c r="D33" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E33" t="s">
         <v>40</v>
       </c>
       <c r="F33" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G33" t="s">
         <v>32</v>
@@ -6477,13 +6477,13 @@
         <v>32</v>
       </c>
       <c r="I33" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J33" t="s">
         <v>74</v>
       </c>
       <c r="K33" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L33" t="s">
         <v>32</v>
@@ -6504,7 +6504,7 @@
         <v>32</v>
       </c>
       <c r="R33" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="S33" t="s">
         <v>32</v>
@@ -6513,24 +6513,24 @@
         <v>32</v>
       </c>
       <c r="U33" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="V33" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="W33" t="s">
         <v>32</v>
       </c>
       <c r="X33" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Y33" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="1:25">
       <c r="A34" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B34" t="s">
         <v>26</v>
@@ -6539,13 +6539,13 @@
         <v>27</v>
       </c>
       <c r="D34" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E34" t="s">
         <v>40</v>
       </c>
       <c r="F34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G34" t="s">
         <v>32</v>
@@ -6554,10 +6554,10 @@
         <v>32</v>
       </c>
       <c r="I34" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="J34" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K34" t="s">
         <v>44</v>
@@ -6581,7 +6581,7 @@
         <v>32</v>
       </c>
       <c r="R34" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="S34" t="s">
         <v>32</v>
@@ -6590,13 +6590,13 @@
         <v>32</v>
       </c>
       <c r="U34" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="V34" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="W34" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="X34" t="s">
         <v>37</v>
@@ -6607,7 +6607,7 @@
     </row>
     <row r="35" spans="1:25">
       <c r="A35" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B35" t="s">
         <v>26</v>
@@ -6616,13 +6616,13 @@
         <v>27</v>
       </c>
       <c r="D35" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E35" t="s">
         <v>40</v>
       </c>
       <c r="F35" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G35" t="s">
         <v>32</v>
@@ -6631,7 +6631,7 @@
         <v>32</v>
       </c>
       <c r="I35" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J35" t="s">
         <v>56</v>
@@ -6658,7 +6658,7 @@
         <v>32</v>
       </c>
       <c r="R35" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="S35" t="s">
         <v>32</v>
@@ -6684,7 +6684,7 @@
     </row>
     <row r="36" spans="1:25">
       <c r="A36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B36" t="s">
         <v>26</v>
@@ -6693,28 +6693,28 @@
         <v>60</v>
       </c>
       <c r="D36" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H36" t="s">
         <v>32</v>
       </c>
       <c r="I36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J36" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K36" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L36" t="s">
         <v>32</v>
@@ -6735,7 +6735,7 @@
         <v>32</v>
       </c>
       <c r="R36" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="S36" t="s">
         <v>32</v>
@@ -6753,7 +6753,7 @@
         <v>32</v>
       </c>
       <c r="X36" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="Y36" t="s">
         <v>248</v>
@@ -6788,7 +6788,7 @@
         <v>251</v>
       </c>
       <c r="J37" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K37" t="s">
         <v>252</v>
@@ -6865,7 +6865,7 @@
         <v>260</v>
       </c>
       <c r="J38" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K38" t="s">
         <v>44</v>
@@ -6975,13 +6975,13 @@
         <v>32</v>
       </c>
       <c r="U39" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="V39" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="W39" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="X39" t="s">
         <v>37</v>
@@ -7084,7 +7084,7 @@
         <v>275</v>
       </c>
       <c r="F41" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G41" t="s">
         <v>31</v>
@@ -7173,7 +7173,7 @@
         <v>281</v>
       </c>
       <c r="J42" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K42" t="s">
         <v>44</v>
@@ -7206,13 +7206,13 @@
         <v>32</v>
       </c>
       <c r="U42" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="V42" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="W42" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="X42" t="s">
         <v>37</v>
@@ -7250,7 +7250,7 @@
         <v>288</v>
       </c>
       <c r="J43" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K43" t="s">
         <v>289</v>
@@ -7292,7 +7292,7 @@
         <v>32</v>
       </c>
       <c r="X43" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Y43" t="s">
         <v>291</v>
@@ -7404,7 +7404,7 @@
         <v>300</v>
       </c>
       <c r="J45" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K45" t="s">
         <v>44</v>
@@ -7466,10 +7466,10 @@
         <v>304</v>
       </c>
       <c r="E46" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F46" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G46" t="s">
         <v>32</v>
@@ -7546,10 +7546,10 @@
         <v>40</v>
       </c>
       <c r="F47" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G47" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H47" t="s">
         <v>32</v>
@@ -7635,7 +7635,7 @@
         <v>315</v>
       </c>
       <c r="J48" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K48" t="s">
         <v>44</v>
@@ -7789,7 +7789,7 @@
         <v>32</v>
       </c>
       <c r="J50" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K50" t="s">
         <v>44</v>
@@ -7976,13 +7976,13 @@
         <v>32</v>
       </c>
       <c r="U52" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="V52" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="W52" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="X52" t="s">
         <v>37</v>
@@ -8085,7 +8085,7 @@
         <v>40</v>
       </c>
       <c r="F54" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G54" t="s">
         <v>31</v>
@@ -8236,7 +8236,7 @@
         <v>357</v>
       </c>
       <c r="E56" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F56" t="s">
         <v>30</v>
@@ -8293,7 +8293,7 @@
         <v>32</v>
       </c>
       <c r="X56" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Y56" t="s">
         <v>363</v>
@@ -8361,10 +8361,10 @@
         <v>32</v>
       </c>
       <c r="U57" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="V57" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="W57" t="s">
         <v>32</v>
@@ -8506,7 +8506,7 @@
         <v>32</v>
       </c>
       <c r="R59" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="S59" t="s">
         <v>32</v>
@@ -8544,7 +8544,7 @@
         <v>390</v>
       </c>
       <c r="E60" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F60" t="s">
         <v>30</v>
@@ -8790,7 +8790,7 @@
         <v>32</v>
       </c>
       <c r="J63" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K63" t="s">
         <v>44</v>
@@ -8900,13 +8900,13 @@
         <v>32</v>
       </c>
       <c r="U64" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="V64" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="W64" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="X64" t="s">
         <v>37</v>
@@ -8944,7 +8944,7 @@
         <v>420</v>
       </c>
       <c r="J65" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K65" t="s">
         <v>44</v>
@@ -9006,7 +9006,7 @@
         <v>424</v>
       </c>
       <c r="E66" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F66" t="s">
         <v>30</v>
@@ -9021,7 +9021,7 @@
         <v>425</v>
       </c>
       <c r="J66" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K66" t="s">
         <v>44</v>
@@ -9154,7 +9154,7 @@
         <v>26</v>
       </c>
       <c r="C68" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D68" t="s">
         <v>435</v>
@@ -9175,7 +9175,7 @@
         <v>436</v>
       </c>
       <c r="J68" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K68" t="s">
         <v>437</v>
@@ -9217,7 +9217,7 @@
         <v>32</v>
       </c>
       <c r="X68" t="s">
-        <v>67</v>
+        <v>213</v>
       </c>
       <c r="Y68" t="s">
         <v>439</v>
@@ -9240,7 +9240,7 @@
         <v>40</v>
       </c>
       <c r="F69" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G69" t="s">
         <v>31</v>
@@ -9252,7 +9252,7 @@
         <v>442</v>
       </c>
       <c r="J69" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K69" t="s">
         <v>44</v>
@@ -9329,7 +9329,7 @@
         <v>446</v>
       </c>
       <c r="J70" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K70" t="s">
         <v>44</v>
@@ -9471,7 +9471,7 @@
         <v>40</v>
       </c>
       <c r="F72" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G72" t="s">
         <v>32</v>
@@ -9483,7 +9483,7 @@
         <v>32</v>
       </c>
       <c r="J72" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K72" t="s">
         <v>44</v>
@@ -9548,7 +9548,7 @@
         <v>40</v>
       </c>
       <c r="F73" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G73" t="s">
         <v>32</v>
@@ -9791,7 +9791,7 @@
         <v>32</v>
       </c>
       <c r="J76" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K76" t="s">
         <v>44</v>
@@ -10010,7 +10010,7 @@
         <v>40</v>
       </c>
       <c r="F79" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G79" t="s">
         <v>32</v>
@@ -10022,7 +10022,7 @@
         <v>32</v>
       </c>
       <c r="J79" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K79" t="s">
         <v>44</v>
@@ -10176,7 +10176,7 @@
         <v>490</v>
       </c>
       <c r="J81" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K81" t="s">
         <v>44</v>
@@ -10253,7 +10253,7 @@
         <v>32</v>
       </c>
       <c r="J82" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K82" t="s">
         <v>44</v>
@@ -10330,7 +10330,7 @@
         <v>501</v>
       </c>
       <c r="J83" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K83" t="s">
         <v>44</v>
@@ -10363,16 +10363,16 @@
         <v>32</v>
       </c>
       <c r="U83" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="V83" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="W83" t="s">
         <v>32</v>
       </c>
       <c r="X83" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Y83" t="s">
         <v>503</v>
@@ -10407,7 +10407,7 @@
         <v>507</v>
       </c>
       <c r="J84" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K84" t="s">
         <v>44</v>
@@ -10869,7 +10869,7 @@
         <v>537</v>
       </c>
       <c r="J90" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K90" t="s">
         <v>44</v>
@@ -10893,7 +10893,7 @@
         <v>32</v>
       </c>
       <c r="R90" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="S90" t="s">
         <v>32</v>
@@ -11254,7 +11254,7 @@
         <v>32</v>
       </c>
       <c r="J95" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K95" t="s">
         <v>44</v>
@@ -11331,7 +11331,7 @@
         <v>563</v>
       </c>
       <c r="J96" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K96" t="s">
         <v>44</v>
@@ -11364,13 +11364,13 @@
         <v>32</v>
       </c>
       <c r="U96" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="V96" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="W96" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="X96" t="s">
         <v>37</v>
@@ -11639,7 +11639,7 @@
         <v>32</v>
       </c>
       <c r="J100" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K100" t="s">
         <v>44</v>
@@ -11716,7 +11716,7 @@
         <v>32</v>
       </c>
       <c r="J101" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K101" t="s">
         <v>44</v>
@@ -11826,13 +11826,13 @@
         <v>32</v>
       </c>
       <c r="U102" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="V102" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="W102" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="X102" t="s">
         <v>37</v>
@@ -11858,7 +11858,7 @@
         <v>264</v>
       </c>
       <c r="F103" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G103" t="s">
         <v>32</v>
@@ -11870,7 +11870,7 @@
         <v>596</v>
       </c>
       <c r="J103" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K103" t="s">
         <v>597</v>
@@ -11903,16 +11903,16 @@
         <v>32</v>
       </c>
       <c r="U103" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="V103" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="W103" t="s">
         <v>32</v>
       </c>
       <c r="X103" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Y103" t="s">
         <v>600</v>
@@ -11992,7 +11992,7 @@
         <v>67</v>
       </c>
       <c r="Y104" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="105" spans="1:25">
@@ -12009,7 +12009,7 @@
         <v>608</v>
       </c>
       <c r="E105" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F105" t="s">
         <v>54</v>
@@ -12048,7 +12048,7 @@
         <v>32</v>
       </c>
       <c r="R105" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="S105" t="s">
         <v>32</v>
@@ -12057,19 +12057,19 @@
         <v>32</v>
       </c>
       <c r="U105" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="V105" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="W105" t="s">
         <v>32</v>
       </c>
       <c r="X105" t="s">
-        <v>67</v>
+        <v>213</v>
       </c>
       <c r="Y105" t="s">
-        <v>388</v>
+        <v>214</v>
       </c>
     </row>
     <row r="106" spans="1:25">
@@ -12101,7 +12101,7 @@
         <v>32</v>
       </c>
       <c r="J106" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K106" t="s">
         <v>44</v>
@@ -12166,7 +12166,7 @@
         <v>40</v>
       </c>
       <c r="F107" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G107" t="s">
         <v>32</v>
@@ -12178,7 +12178,7 @@
         <v>32</v>
       </c>
       <c r="J107" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K107" t="s">
         <v>44</v>
@@ -12320,7 +12320,7 @@
         <v>623</v>
       </c>
       <c r="F109" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G109" t="s">
         <v>31</v>
@@ -12409,7 +12409,7 @@
         <v>629</v>
       </c>
       <c r="J110" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K110" t="s">
         <v>44</v>
@@ -12486,7 +12486,7 @@
         <v>634</v>
       </c>
       <c r="J111" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K111" t="s">
         <v>44</v>
@@ -12705,7 +12705,7 @@
         <v>648</v>
       </c>
       <c r="F114" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G114" t="s">
         <v>649</v>
@@ -12990,10 +12990,10 @@
         <v>32</v>
       </c>
       <c r="X117" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="Y117" t="s">
-        <v>32</v>
+        <v>372</v>
       </c>
     </row>
     <row r="118" spans="1:25">
@@ -13179,7 +13179,7 @@
         <v>680</v>
       </c>
       <c r="J120" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K120" t="s">
         <v>44</v>
@@ -13244,7 +13244,7 @@
         <v>684</v>
       </c>
       <c r="F121" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G121" t="s">
         <v>32</v>
@@ -13333,7 +13333,7 @@
         <v>688</v>
       </c>
       <c r="J122" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K122" t="s">
         <v>44</v>
@@ -13398,7 +13398,7 @@
         <v>40</v>
       </c>
       <c r="F123" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G123" t="s">
         <v>32</v>
@@ -13629,7 +13629,7 @@
         <v>711</v>
       </c>
       <c r="F126" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G126" t="s">
         <v>32</v>
@@ -13783,7 +13783,7 @@
         <v>722</v>
       </c>
       <c r="F128" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G128" t="s">
         <v>32</v>
@@ -13795,7 +13795,7 @@
         <v>723</v>
       </c>
       <c r="J128" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K128" t="s">
         <v>44</v>
@@ -13937,7 +13937,7 @@
         <v>40</v>
       </c>
       <c r="F130" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G130" t="s">
         <v>732</v>
@@ -14050,7 +14050,7 @@
         <v>32</v>
       </c>
       <c r="R131" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="S131" t="s">
         <v>32</v>
@@ -14103,7 +14103,7 @@
         <v>741</v>
       </c>
       <c r="J132" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K132" t="s">
         <v>44</v>
@@ -14127,7 +14127,7 @@
         <v>742</v>
       </c>
       <c r="R132" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="S132" t="s">
         <v>32</v>
@@ -14180,7 +14180,7 @@
         <v>32</v>
       </c>
       <c r="J133" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K133" t="s">
         <v>44</v>
@@ -14479,7 +14479,7 @@
         <v>762</v>
       </c>
       <c r="G137" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H137" t="s">
         <v>32</v>
@@ -14488,7 +14488,7 @@
         <v>763</v>
       </c>
       <c r="J137" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K137" t="s">
         <v>44</v>
@@ -14589,7 +14589,7 @@
         <v>32</v>
       </c>
       <c r="R138" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="S138" t="s">
         <v>32</v>
@@ -14624,7 +14624,7 @@
         <v>27</v>
       </c>
       <c r="D139" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E139" t="s">
         <v>768</v>
@@ -14707,10 +14707,10 @@
         <v>774</v>
       </c>
       <c r="F140" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G140" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H140" t="s">
         <v>32</v>
@@ -14873,7 +14873,7 @@
         <v>786</v>
       </c>
       <c r="J142" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K142" t="s">
         <v>44</v>
@@ -15169,10 +15169,10 @@
         <v>264</v>
       </c>
       <c r="F146" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G146" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H146" t="s">
         <v>32</v>
@@ -15181,7 +15181,7 @@
         <v>32</v>
       </c>
       <c r="J146" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K146" t="s">
         <v>44</v>
@@ -15489,7 +15489,7 @@
         <v>32</v>
       </c>
       <c r="J150" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K150" t="s">
         <v>44</v>
@@ -15631,7 +15631,7 @@
         <v>828</v>
       </c>
       <c r="F152" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G152" t="s">
         <v>31</v>
@@ -15643,7 +15643,7 @@
         <v>829</v>
       </c>
       <c r="J152" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K152" t="s">
         <v>44</v>
@@ -15708,7 +15708,7 @@
         <v>828</v>
       </c>
       <c r="F153" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G153" t="s">
         <v>31</v>
@@ -15720,7 +15720,7 @@
         <v>833</v>
       </c>
       <c r="J153" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K153" t="s">
         <v>44</v>
@@ -16626,7 +16626,7 @@
         <v>27</v>
       </c>
       <c r="D165" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E165" t="s">
         <v>888</v>
@@ -17094,7 +17094,7 @@
         <v>913</v>
       </c>
       <c r="F171" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G171" t="s">
         <v>31</v>
@@ -17645,7 +17645,7 @@
         <v>945</v>
       </c>
       <c r="J178" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K178" t="s">
         <v>44</v>
@@ -17799,7 +17799,7 @@
         <v>956</v>
       </c>
       <c r="J180" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K180" t="s">
         <v>44</v>
@@ -18021,7 +18021,7 @@
         <v>30</v>
       </c>
       <c r="G183" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H183" t="s">
         <v>32</v>
@@ -18107,7 +18107,7 @@
         <v>974</v>
       </c>
       <c r="J184" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K184" t="s">
         <v>44</v>
@@ -18261,7 +18261,7 @@
         <v>984</v>
       </c>
       <c r="J186" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K186" t="s">
         <v>252</v>
@@ -18294,13 +18294,13 @@
         <v>32</v>
       </c>
       <c r="U186" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="V186" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="W186" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="X186" t="s">
         <v>37</v>
@@ -18326,7 +18326,7 @@
         <v>828</v>
       </c>
       <c r="F187" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G187" t="s">
         <v>31</v>
@@ -18338,7 +18338,7 @@
         <v>988</v>
       </c>
       <c r="J187" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K187" t="s">
         <v>44</v>
@@ -18415,7 +18415,7 @@
         <v>992</v>
       </c>
       <c r="J188" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K188" t="s">
         <v>44</v>
@@ -18474,7 +18474,7 @@
         <v>27</v>
       </c>
       <c r="D189" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E189" t="s">
         <v>995</v>
@@ -18942,7 +18942,7 @@
         <v>40</v>
       </c>
       <c r="F195" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G195" t="s">
         <v>32</v>
@@ -19173,10 +19173,10 @@
         <v>1038</v>
       </c>
       <c r="F198" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G198" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H198" t="s">
         <v>32</v>
@@ -19262,7 +19262,7 @@
         <v>32</v>
       </c>
       <c r="J199" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K199" t="s">
         <v>44</v>
@@ -19416,7 +19416,7 @@
         <v>1050</v>
       </c>
       <c r="J201" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K201" t="s">
         <v>44</v>
@@ -19478,7 +19478,7 @@
         <v>1053</v>
       </c>
       <c r="E202" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F202" t="s">
         <v>72</v>
@@ -19943,7 +19943,7 @@
         <v>1084</v>
       </c>
       <c r="F208" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G208" t="s">
         <v>699</v>
@@ -20112,7 +20112,7 @@
         <v>1055</v>
       </c>
       <c r="K210" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L210" t="s">
         <v>32</v>
@@ -20571,7 +20571,7 @@
         <v>1118</v>
       </c>
       <c r="J216" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K216" t="s">
         <v>44</v>
@@ -21006,7 +21006,7 @@
     </row>
     <row r="222" spans="1:25">
       <c r="A222" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B222" t="s">
         <v>26</v>
@@ -21021,7 +21021,7 @@
         <v>1147</v>
       </c>
       <c r="F222" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G222" t="s">
         <v>32</v>
@@ -21033,7 +21033,7 @@
         <v>1148</v>
       </c>
       <c r="J222" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K222" t="s">
         <v>44</v>
@@ -21054,7 +21054,7 @@
         <v>32</v>
       </c>
       <c r="Q222" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="R222" t="s">
         <v>1149</v>
@@ -21726,7 +21726,7 @@
         <v>1186</v>
       </c>
       <c r="J231" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K231" t="s">
         <v>44</v>
@@ -21957,7 +21957,7 @@
         <v>1197</v>
       </c>
       <c r="J234" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K234" t="s">
         <v>252</v>
@@ -21990,13 +21990,13 @@
         <v>32</v>
       </c>
       <c r="U234" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="V234" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="W234" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="X234" t="s">
         <v>37</v>
